--- a/CaVaTeCo/form_a_pontos.xlsx
+++ b/CaVaTeCo/form_a_pontos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CaVaTeCo_ODK\odk_forms_working\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CLCR_Moz_Coastal\ODK\odk_forms_clcr_lot_1_avante\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD57B040-C538-4EA2-A2F2-A804111087C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CF8DAE-16A4-4478-AA19-70A8E744C998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -756,90 +756,76 @@
     <t>&lt;br/&gt; &lt;h1&gt;Cadeia de Valor de Terra Comunitária&lt;/h1&gt;&lt;br/&gt; &lt;h2&gt;${project}&lt;/h2&gt;&lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;</t>
   </si>
   <si>
+    <t>religious_name_church</t>
+  </si>
+  <si>
+    <t>religious_name_mosque</t>
+  </si>
+  <si>
+    <t>Qual é o nome da mosquita?</t>
+  </si>
+  <si>
+    <t>${poi_descriptor} = 'religious_church'</t>
+  </si>
+  <si>
+    <t>${poi_descriptor} = 'religious_mosque'</t>
+  </si>
+  <si>
+    <t>searchtext</t>
+  </si>
+  <si>
+    <t>enum_name_id</t>
+  </si>
+  <si>
+    <t>Selecionar o seu nome:</t>
+  </si>
+  <si>
+    <t>enum_name</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Se o seu nome &lt;span style="color:#FF6347"&gt;não aparece&lt;/span&gt; em baixo, quer dizer que ainda não fez o registo dos seus dados, ou que houve problema na actualização do sistema. Não será possível continuar. Deve fazer o seu registo de pessoa através do 'Formulário 1', e depois actualizar os dados, e voltar a repetir o registo de ponto mais tarde.  Pode fechar o Formulário sem gravar.</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
+  </si>
+  <si>
+    <t>. &lt;= today()</t>
+  </si>
+  <si>
+    <t>pontos</t>
+  </si>
+  <si>
+    <t>starts-with(label,${searchtext})</t>
+  </si>
+  <si>
+    <t>select_one_from_file enum_names.csv</t>
+  </si>
+  <si>
+    <t>instance('enum_names')/root/item[name=${enum_name_id}]/enumerator_name</t>
+  </si>
+  <si>
+    <t>tf_logo.jpg</t>
+  </si>
+  <si>
+    <t>"CLCR Lot 1 Avante"</t>
+  </si>
+  <si>
     <t>&lt;span style="color:#FF0000"&gt;${project}&lt;/span&gt;&lt;br/&gt; &lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;
 Este formulário é utilizado para gravar informação sobre os pontos de interesse (area sagradas, arvores, montanhas, etc.), pontos que tem recursos (agua, culturas, florestas, etc.) e infraestruras sociais (igrejas, cemiterios, torre celular, etc.).
 O formulário pode ser utilizado a qualquer altura. 
 Não fica necessária a identificação da localização do ponto em termos do nome da comunidade, povoação ou associação - basta ter coordenadas atraves do GPS.
-Um ponto pode ser tirado a qualquer momento, desde que esteja dentro da área do projecto.   O formulário devia ser preenchido cada vez que fica identificado um ponto de interesse ou um recurso importante.   
+Um ponto pode ser tirado a qualquer momento, desde que esteja dentro da área do projecto.   O formulário deve ser preenchido cada vez que fica identificado um ponto de interesse ou um recurso importante.   
 O técnico pode usar o formulário para selecionar e gravar informação sobre estes pontos, incluindo as coordenadas da localização através de GPS e uma imagem do ponto.
 Por favor deslizar para a frente para continuar.</t>
-  </si>
-  <si>
-    <t>religious_name_church</t>
-  </si>
-  <si>
-    <t>religious_name_mosque</t>
-  </si>
-  <si>
-    <t>Qual é o nome da mosquita?</t>
-  </si>
-  <si>
-    <t>${poi_descriptor} = 'religious_church'</t>
-  </si>
-  <si>
-    <t>${poi_descriptor} = 'religious_mosque'</t>
-  </si>
-  <si>
-    <t>searchtext</t>
-  </si>
-  <si>
-    <t>enum_name_id</t>
-  </si>
-  <si>
-    <t>Selecionar o seu nome:</t>
-  </si>
-  <si>
-    <t>enum_name</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Se o seu nome &lt;span style="color:#FF6347"&gt;não aparece&lt;/span&gt; em baixo, quer dizer que ainda não fez o registo dos seus dados, ou que houve problema na actualização do sistema. Não será possível continuar. Deve fazer o seu registo de pessoa através do 'Formulário 1', e depois actualizar os dados, e voltar a repetir o registo de ponto mais tarde.  Pode fechar o Formulário sem gravar.</t>
-  </si>
-  <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
-  </si>
-  <si>
-    <t>. &lt;= today()</t>
-  </si>
-  <si>
-    <t>pontos</t>
-  </si>
-  <si>
-    <t>starts-with(label,${searchtext})</t>
-  </si>
-  <si>
-    <t>select_one_from_file enum_names.csv</t>
-  </si>
-  <si>
-    <t>instance('enum_names')/root/item[name=${enum_name_id}]/enumerator_name</t>
-  </si>
-  <si>
-    <t>tf_logo.jpg</t>
-  </si>
-  <si>
-    <t>"CLCR Lot 1 Avante"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1170,13 +1156,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1209,412 +1188,413 @@
   </borders>
   <cellStyleXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="246"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="246" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="246"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="246" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="246" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="246" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="246" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="244" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="244" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="247">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2202,35 +2182,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.3984375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="24" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.19921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="30.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.8984375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="68.19921875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="32.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="30.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="68.25" style="5" customWidth="1"/>
     <col min="15" max="15" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.125" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2280,7 +2260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>16</v>
       </c>
@@ -2288,7 +2268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>175</v>
       </c>
@@ -2299,7 +2279,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>99</v>
       </c>
@@ -2310,7 +2290,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="68" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
         <v>99</v>
       </c>
@@ -2318,10 +2298,10 @@
         <v>236</v>
       </c>
       <c r="N6" s="71" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>99</v>
       </c>
@@ -2332,7 +2312,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
@@ -2344,92 +2324,91 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="O9" s="81" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O9" s="76" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="75" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="48"/>
     </row>
-    <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="80" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
+      <c r="C12" s="77" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="59" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="72" t="s">
-        <v>249</v>
-      </c>
-      <c r="J13" s="72" t="s">
+      <c r="C14" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="J14" s="59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="s">
+    <row r="15" spans="1:16" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="N15" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>248</v>
-      </c>
-      <c r="J14" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="72"/>
-    </row>
-    <row r="15" spans="1:16" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>247</v>
-      </c>
-      <c r="N15" s="72" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
@@ -2440,7 +2419,7 @@
         <v>34</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J16" s="16" t="s">
         <v>20</v>
@@ -2450,7 +2429,7 @@
       </c>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>24</v>
       </c>
@@ -2466,7 +2445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="55" t="s">
         <v>185</v>
       </c>
@@ -2488,7 +2467,7 @@
       </c>
       <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>23</v>
       </c>
@@ -2508,7 +2487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
         <v>186</v>
       </c>
@@ -2530,7 +2509,7 @@
       </c>
       <c r="M20" s="23"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>23</v>
       </c>
@@ -2545,7 +2524,7 @@
       </c>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>23</v>
       </c>
@@ -2560,7 +2539,7 @@
       </c>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>23</v>
       </c>
@@ -2575,35 +2554,35 @@
       </c>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:13" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="72" t="s">
+    <row r="24" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="C24" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="72" t="s">
+      <c r="C25" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="59" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>23</v>
       </c>
@@ -2618,7 +2597,7 @@
       </c>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>23</v>
       </c>
@@ -2633,7 +2612,7 @@
       </c>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>23</v>
       </c>
@@ -2648,7 +2627,7 @@
       </c>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
@@ -2663,7 +2642,7 @@
       </c>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>23</v>
       </c>
@@ -2678,7 +2657,7 @@
       </c>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>23</v>
       </c>
@@ -2693,7 +2672,7 @@
       </c>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="55" t="s">
         <v>187</v>
       </c>
@@ -2715,7 +2694,7 @@
       </c>
       <c r="M32" s="24"/>
     </row>
-    <row r="33" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
         <v>188</v>
       </c>
@@ -2738,7 +2717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>23</v>
       </c>
@@ -2752,7 +2731,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
@@ -2769,7 +2748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55" t="s">
         <v>190</v>
       </c>
@@ -2790,7 +2769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55" t="s">
         <v>51</v>
       </c>
@@ -2808,7 +2787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55" t="s">
         <v>191</v>
       </c>
@@ -2829,7 +2808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55" t="s">
         <v>52</v>
       </c>
@@ -2847,7 +2826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>23</v>
       </c>
@@ -2864,7 +2843,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
@@ -2872,7 +2851,7 @@
       <c r="G41" s="49"/>
       <c r="H41" s="43"/>
     </row>
-    <row r="42" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>185</v>
       </c>
@@ -2892,7 +2871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -2909,7 +2888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55" t="s">
         <v>198</v>
       </c>
@@ -2929,7 +2908,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="55" t="s">
         <v>199</v>
       </c>
@@ -2949,13 +2928,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="39"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>27</v>
       </c>
@@ -2971,7 +2950,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>22</v>
       </c>
@@ -2981,31 +2960,31 @@
       <c r="C48" s="14"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="29"/>
       <c r="C49" s="14"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="29"/>
       <c r="C50" s="14"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="29"/>
       <c r="C51" s="14"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="29"/>
       <c r="C52" s="14"/>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="40"/>
       <c r="C53" s="14"/>
@@ -3013,115 +2992,115 @@
       <c r="G53" s="13"/>
       <c r="J53" s="14"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="40"/>
       <c r="C54" s="14"/>
       <c r="G54" s="13"/>
       <c r="J54" s="14"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="40"/>
       <c r="C55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="40"/>
       <c r="C56" s="14"/>
       <c r="G56" s="13"/>
       <c r="J56" s="14"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="40"/>
       <c r="C57" s="14"/>
       <c r="G57" s="14"/>
       <c r="J57" s="14"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="40"/>
       <c r="C58" s="14"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" s="40"/>
       <c r="C59" s="14"/>
       <c r="G59" s="13"/>
       <c r="J59" s="14"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="40"/>
       <c r="C60" s="14"/>
       <c r="G60" s="14"/>
       <c r="J60" s="14"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="40"/>
       <c r="C61" s="14"/>
       <c r="J61" s="14"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="40"/>
       <c r="C62" s="14"/>
       <c r="G62" s="14"/>
       <c r="J62" s="14"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" s="40"/>
       <c r="C63" s="14"/>
       <c r="J63" s="14"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="40"/>
       <c r="C64" s="14"/>
       <c r="G64" s="14"/>
       <c r="J64" s="14"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="40"/>
       <c r="C65" s="14"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="29"/>
       <c r="C66" s="13"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B67" s="41"/>
       <c r="C67" s="14"/>
       <c r="J67" s="13"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B68" s="41"/>
       <c r="C68" s="14"/>
       <c r="J68" s="13"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="40"/>
       <c r="C69" s="13"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" s="40"/>
       <c r="C70" s="13"/>
       <c r="J70" s="14"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" s="40"/>
       <c r="C71" s="13"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" s="40"/>
       <c r="C72" s="13"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" s="40"/>
       <c r="C73" s="13"/>
       <c r="F73" s="14"/>
@@ -3144,18 +3123,18 @@
       <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.09765625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="30" customWidth="1"/>
     <col min="3" max="3" width="42.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.8984375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="10.8984375" style="6"/>
+    <col min="4" max="4" width="21.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3169,7 +3148,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>61</v>
       </c>
@@ -3180,7 +3159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>61</v>
       </c>
@@ -3191,7 +3170,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>61</v>
       </c>
@@ -3202,7 +3181,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>61</v>
       </c>
@@ -3213,7 +3192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>61</v>
       </c>
@@ -3224,7 +3203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>61</v>
       </c>
@@ -3235,7 +3214,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>61</v>
       </c>
@@ -3246,7 +3225,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>61</v>
       </c>
@@ -3257,7 +3236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>61</v>
       </c>
@@ -3268,7 +3247,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>61</v>
       </c>
@@ -3279,7 +3258,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>61</v>
       </c>
@@ -3290,7 +3269,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>61</v>
       </c>
@@ -3301,7 +3280,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>61</v>
       </c>
@@ -3312,7 +3291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>61</v>
       </c>
@@ -3323,7 +3302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>61</v>
       </c>
@@ -3334,7 +3313,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>61</v>
       </c>
@@ -3345,12 +3324,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="31"/>
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>77</v>
       </c>
@@ -3361,7 +3340,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>77</v>
       </c>
@@ -3372,7 +3351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>77</v>
       </c>
@@ -3383,7 +3362,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>77</v>
       </c>
@@ -3394,7 +3373,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>77</v>
       </c>
@@ -3405,7 +3384,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>77</v>
       </c>
@@ -3416,7 +3395,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>77</v>
       </c>
@@ -3427,7 +3406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>77</v>
       </c>
@@ -3438,7 +3417,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>77</v>
       </c>
@@ -3449,7 +3428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>77</v>
       </c>
@@ -3460,7 +3439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>77</v>
       </c>
@@ -3471,7 +3450,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>77</v>
       </c>
@@ -3482,7 +3461,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>77</v>
       </c>
@@ -3493,7 +3472,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>77</v>
       </c>
@@ -3504,7 +3483,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>77</v>
       </c>
@@ -3515,7 +3494,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>77</v>
       </c>
@@ -3526,7 +3505,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>77</v>
       </c>
@@ -3537,7 +3516,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>77</v>
       </c>
@@ -3548,7 +3527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>77</v>
       </c>
@@ -3559,7 +3538,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>77</v>
       </c>
@@ -3570,7 +3549,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>77</v>
       </c>
@@ -3581,22 +3560,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
       <c r="B41" s="31"/>
       <c r="C41" s="28"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="31"/>
       <c r="C42" s="28"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="74"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="74"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="72"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="72"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="31"/>
       <c r="C44" s="28"/>
@@ -3615,16 +3594,16 @@
       <selection activeCell="F846" sqref="F846"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="62" customWidth="1"/>
-    <col min="2" max="2" width="26.09765625" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="62" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="62"/>
-    <col min="6" max="6" width="34.8984375" style="62" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="62" customWidth="1"/>
     <col min="7" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>201</v>
       </c>
@@ -3632,1647 +3611,1647 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="62" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="62" t="s">
         <v>204</v>
       </c>
@@ -5281,7 +5260,7 @@
       <c r="D332" s="63"/>
       <c r="E332" s="63"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="62" t="s">
         <v>204</v>
       </c>
@@ -5290,7 +5269,7 @@
       <c r="D333" s="63"/>
       <c r="E333" s="63"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="62" t="s">
         <v>204</v>
       </c>
@@ -5299,7 +5278,7 @@
       <c r="D334" s="63"/>
       <c r="E334" s="63"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="62" t="s">
         <v>204</v>
       </c>
@@ -5308,7 +5287,7 @@
       <c r="D335" s="63"/>
       <c r="E335" s="63"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="62" t="s">
         <v>204</v>
       </c>
@@ -5317,7 +5296,7 @@
       <c r="D336" s="63"/>
       <c r="E336" s="63"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="62" t="s">
         <v>204</v>
       </c>
@@ -5326,7 +5305,7 @@
       <c r="D337" s="63"/>
       <c r="E337" s="63"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="62" t="s">
         <v>204</v>
       </c>
@@ -5335,7 +5314,7 @@
       <c r="D338" s="63"/>
       <c r="E338" s="63"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="62" t="s">
         <v>204</v>
       </c>
@@ -5344,7 +5323,7 @@
       <c r="D339" s="63"/>
       <c r="E339" s="63"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="62" t="s">
         <v>204</v>
       </c>
@@ -5353,7 +5332,7 @@
       <c r="D340" s="63"/>
       <c r="E340" s="63"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="62" t="s">
         <v>204</v>
       </c>
@@ -5362,7 +5341,7 @@
       <c r="D341" s="63"/>
       <c r="E341" s="63"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="62" t="s">
         <v>204</v>
       </c>
@@ -5371,7 +5350,7 @@
       <c r="D342" s="63"/>
       <c r="E342" s="63"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="62" t="s">
         <v>204</v>
       </c>
@@ -5380,7 +5359,7 @@
       <c r="D343" s="63"/>
       <c r="E343" s="63"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="62" t="s">
         <v>204</v>
       </c>
@@ -5389,7 +5368,7 @@
       <c r="D344" s="63"/>
       <c r="E344" s="63"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="62" t="s">
         <v>204</v>
       </c>
@@ -5398,7 +5377,7 @@
       <c r="D345" s="63"/>
       <c r="E345" s="63"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="62" t="s">
         <v>204</v>
       </c>
@@ -5407,7 +5386,7 @@
       <c r="D346" s="63"/>
       <c r="E346" s="63"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="62" t="s">
         <v>204</v>
       </c>
@@ -5416,7 +5395,7 @@
       <c r="D347" s="63"/>
       <c r="E347" s="63"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="62" t="s">
         <v>204</v>
       </c>
@@ -5425,7 +5404,7 @@
       <c r="D348" s="63"/>
       <c r="E348" s="63"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="62" t="s">
         <v>204</v>
       </c>
@@ -5434,7 +5413,7 @@
       <c r="D349" s="63"/>
       <c r="E349" s="63"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="62" t="s">
         <v>204</v>
       </c>
@@ -5443,7 +5422,7 @@
       <c r="D350" s="63"/>
       <c r="E350" s="63"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="62" t="s">
         <v>204</v>
       </c>
@@ -5452,7 +5431,7 @@
       <c r="D351" s="63"/>
       <c r="E351" s="63"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="62" t="s">
         <v>204</v>
       </c>
@@ -5461,7 +5440,7 @@
       <c r="D352" s="63"/>
       <c r="E352" s="63"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="62" t="s">
         <v>204</v>
       </c>
@@ -5470,7 +5449,7 @@
       <c r="D353" s="63"/>
       <c r="E353" s="63"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="62" t="s">
         <v>204</v>
       </c>
@@ -5479,7 +5458,7 @@
       <c r="D354" s="63"/>
       <c r="E354" s="63"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="62" t="s">
         <v>204</v>
       </c>
@@ -5488,7 +5467,7 @@
       <c r="D355" s="63"/>
       <c r="E355" s="63"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="62" t="s">
         <v>204</v>
       </c>
@@ -5497,7 +5476,7 @@
       <c r="D356" s="63"/>
       <c r="E356" s="63"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="62" t="s">
         <v>204</v>
       </c>
@@ -5506,7 +5485,7 @@
       <c r="D357" s="63"/>
       <c r="E357" s="63"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="62" t="s">
         <v>204</v>
       </c>
@@ -5515,7 +5494,7 @@
       <c r="D358" s="63"/>
       <c r="E358" s="63"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="62" t="s">
         <v>204</v>
       </c>
@@ -5524,7 +5503,7 @@
       <c r="D359" s="63"/>
       <c r="E359" s="63"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="62" t="s">
         <v>204</v>
       </c>
@@ -5533,7 +5512,7 @@
       <c r="D360" s="63"/>
       <c r="E360" s="63"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="62" t="s">
         <v>204</v>
       </c>
@@ -5542,7 +5521,7 @@
       <c r="D361" s="63"/>
       <c r="E361" s="63"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="62" t="s">
         <v>204</v>
       </c>
@@ -5551,7 +5530,7 @@
       <c r="D362" s="63"/>
       <c r="E362" s="63"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="62" t="s">
         <v>204</v>
       </c>
@@ -5560,7 +5539,7 @@
       <c r="D363" s="63"/>
       <c r="E363" s="63"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="62" t="s">
         <v>204</v>
       </c>
@@ -5569,7 +5548,7 @@
       <c r="D364" s="63"/>
       <c r="E364" s="63"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="62" t="s">
         <v>204</v>
       </c>
@@ -5578,7 +5557,7 @@
       <c r="D365" s="63"/>
       <c r="E365" s="63"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="62" t="s">
         <v>204</v>
       </c>
@@ -5587,7 +5566,7 @@
       <c r="D366" s="63"/>
       <c r="E366" s="63"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="62" t="s">
         <v>204</v>
       </c>
@@ -5596,7 +5575,7 @@
       <c r="D367" s="63"/>
       <c r="E367" s="63"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="62" t="s">
         <v>204</v>
       </c>
@@ -5605,7 +5584,7 @@
       <c r="D368" s="63"/>
       <c r="E368" s="63"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="62" t="s">
         <v>204</v>
       </c>
@@ -5614,7 +5593,7 @@
       <c r="D369" s="63"/>
       <c r="E369" s="63"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="62" t="s">
         <v>204</v>
       </c>
@@ -5623,7 +5602,7 @@
       <c r="D370" s="63"/>
       <c r="E370" s="63"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="62" t="s">
         <v>204</v>
       </c>
@@ -5632,7 +5611,7 @@
       <c r="D371" s="63"/>
       <c r="E371" s="63"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="62" t="s">
         <v>204</v>
       </c>
@@ -5641,7 +5620,7 @@
       <c r="D372" s="63"/>
       <c r="E372" s="63"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="62" t="s">
         <v>204</v>
       </c>
@@ -5650,7 +5629,7 @@
       <c r="D373" s="63"/>
       <c r="E373" s="63"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="62" t="s">
         <v>204</v>
       </c>
@@ -5659,7 +5638,7 @@
       <c r="D374" s="63"/>
       <c r="E374" s="63"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="62" t="s">
         <v>204</v>
       </c>
@@ -5668,7 +5647,7 @@
       <c r="D375" s="63"/>
       <c r="E375" s="63"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="62" t="s">
         <v>204</v>
       </c>
@@ -5677,7 +5656,7 @@
       <c r="D376" s="63"/>
       <c r="E376" s="63"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="62" t="s">
         <v>204</v>
       </c>
@@ -5686,1032 +5665,1032 @@
       <c r="D377" s="63"/>
       <c r="E377" s="63"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="62" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="62" t="s">
         <v>205</v>
       </c>
@@ -6720,7 +6699,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="62" t="s">
         <v>205</v>
       </c>
@@ -6729,7 +6708,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="62" t="s">
         <v>205</v>
       </c>
@@ -6738,7 +6717,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="62" t="s">
         <v>205</v>
       </c>
@@ -6747,10 +6726,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B588" s="64"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="62" t="s">
         <v>207</v>
       </c>
@@ -6759,7 +6738,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="62" t="s">
         <v>207</v>
       </c>
@@ -6768,7 +6747,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="62" t="s">
         <v>207</v>
       </c>
@@ -6777,10 +6756,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B592" s="64"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="62" t="s">
         <v>208</v>
       </c>
@@ -6789,7 +6768,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="62" t="s">
         <v>208</v>
       </c>
@@ -6798,10 +6777,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B595" s="64"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="62" t="s">
         <v>209</v>
       </c>
@@ -6810,7 +6789,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="62" t="s">
         <v>209</v>
       </c>
@@ -6819,7 +6798,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="62" t="s">
         <v>209</v>
       </c>
@@ -6828,7 +6807,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="62" t="s">
         <v>209</v>
       </c>
@@ -6837,7 +6816,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="62" t="s">
         <v>209</v>
       </c>
@@ -6846,7 +6825,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="62" t="s">
         <v>209</v>
       </c>
@@ -6855,7 +6834,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="62" t="s">
         <v>209</v>
       </c>
@@ -6864,7 +6843,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="62" t="s">
         <v>209</v>
       </c>
@@ -6873,7 +6852,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="62" t="s">
         <v>209</v>
       </c>
@@ -6882,7 +6861,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="62" t="s">
         <v>209</v>
       </c>
@@ -6891,7 +6870,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="62" t="s">
         <v>209</v>
       </c>
@@ -6900,10 +6879,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B607" s="64"/>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="62" t="s">
         <v>210</v>
       </c>
@@ -6912,7 +6891,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="62" t="s">
         <v>210</v>
       </c>
@@ -6921,10 +6900,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B610" s="64"/>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="62" t="s">
         <v>211</v>
       </c>
@@ -6933,7 +6912,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="62" t="s">
         <v>211</v>
       </c>
@@ -6942,7 +6921,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="62" t="s">
         <v>211</v>
       </c>
@@ -6951,7 +6930,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="62" t="s">
         <v>211</v>
       </c>
@@ -6960,10 +6939,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B615" s="64"/>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="62" t="s">
         <v>212</v>
       </c>
@@ -6972,7 +6951,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="62" t="s">
         <v>212</v>
       </c>
@@ -6981,7 +6960,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="62" t="s">
         <v>212</v>
       </c>
@@ -6990,7 +6969,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="62" t="s">
         <v>212</v>
       </c>
@@ -6999,7 +6978,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="62" t="s">
         <v>212</v>
       </c>
@@ -7008,10 +6987,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B621" s="64"/>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="62" t="s">
         <v>213</v>
       </c>
@@ -7020,7 +6999,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="62" t="s">
         <v>213</v>
       </c>
@@ -7029,7 +7008,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="65" t="s">
         <v>214</v>
       </c>
@@ -7039,7 +7018,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="65" t="s">
         <v>214</v>
       </c>
@@ -7049,7 +7028,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="65" t="s">
         <v>214</v>
       </c>
@@ -7059,7 +7038,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="65" t="s">
         <v>214</v>
       </c>
@@ -7069,7 +7048,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="65" t="s">
         <v>214</v>
       </c>
@@ -7079,7 +7058,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="65" t="s">
         <v>214</v>
       </c>
@@ -7089,7 +7068,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="65" t="s">
         <v>214</v>
       </c>
@@ -7099,7 +7078,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="65" t="s">
         <v>214</v>
       </c>
@@ -7109,7 +7088,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="65" t="s">
         <v>214</v>
       </c>
@@ -7119,7 +7098,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="65" t="s">
         <v>214</v>
       </c>
@@ -7129,7 +7108,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="65" t="s">
         <v>214</v>
       </c>
@@ -7139,7 +7118,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="65" t="s">
         <v>214</v>
       </c>
@@ -7149,7 +7128,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="65" t="s">
         <v>214</v>
       </c>
@@ -7159,7 +7138,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="65" t="s">
         <v>214</v>
       </c>
@@ -7169,7 +7148,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="65" t="s">
         <v>214</v>
       </c>
@@ -7179,7 +7158,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="65" t="s">
         <v>214</v>
       </c>
@@ -7189,7 +7168,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="65" t="s">
         <v>214</v>
       </c>
@@ -7199,12 +7178,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="65"/>
       <c r="B643" s="66"/>
       <c r="C643" s="65"/>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="65" t="s">
         <v>215</v>
       </c>
@@ -7214,7 +7193,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="65" t="s">
         <v>215</v>
       </c>
@@ -7224,7 +7203,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="65" t="s">
         <v>225</v>
       </c>
@@ -7234,7 +7213,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="65" t="s">
         <v>225</v>
       </c>
@@ -7244,7 +7223,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="65" t="s">
         <v>225</v>
       </c>
@@ -7254,7 +7233,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="65" t="s">
         <v>225</v>
       </c>
@@ -7264,7 +7243,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="65" t="s">
         <v>225</v>
       </c>
@@ -7274,7 +7253,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="65" t="s">
         <v>225</v>
       </c>
@@ -7284,7 +7263,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="65" t="s">
         <v>225</v>
       </c>
@@ -7294,7 +7273,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="65" t="s">
         <v>225</v>
       </c>
@@ -7304,7 +7283,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="65" t="s">
         <v>225</v>
       </c>
@@ -7314,7 +7293,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="65" t="s">
         <v>225</v>
       </c>
@@ -7324,7 +7303,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="65" t="s">
         <v>225</v>
       </c>
@@ -7334,7 +7313,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="65" t="s">
         <v>225</v>
       </c>
@@ -7344,7 +7323,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="65" t="s">
         <v>225</v>
       </c>
@@ -7354,7 +7333,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="65" t="s">
         <v>225</v>
       </c>
@@ -7364,7 +7343,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="65" t="s">
         <v>225</v>
       </c>
@@ -7374,7 +7353,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="65" t="s">
         <v>225</v>
       </c>
@@ -7384,7 +7363,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="65" t="s">
         <v>225</v>
       </c>
@@ -7394,7 +7373,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="65" t="s">
         <v>225</v>
       </c>
@@ -7404,7 +7383,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="65" t="s">
         <v>225</v>
       </c>
@@ -7414,7 +7393,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="65" t="s">
         <v>216</v>
       </c>
@@ -7424,7 +7403,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="65" t="s">
         <v>216</v>
       </c>
@@ -7434,7 +7413,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="65" t="s">
         <v>216</v>
       </c>
@@ -7444,17 +7423,17 @@
         <v>206</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="65"/>
       <c r="B671" s="64"/>
       <c r="C671" s="65"/>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="65"/>
       <c r="B672" s="64"/>
       <c r="C672" s="65"/>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="65" t="s">
         <v>217</v>
       </c>
@@ -7464,7 +7443,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="65" t="s">
         <v>217</v>
       </c>
@@ -7474,7 +7453,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="65" t="s">
         <v>217</v>
       </c>
@@ -7484,7 +7463,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="65" t="s">
         <v>217</v>
       </c>
@@ -7494,7 +7473,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="65" t="s">
         <v>217</v>
       </c>
@@ -7504,7 +7483,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="65" t="s">
         <v>217</v>
       </c>
@@ -7514,7 +7493,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="65" t="s">
         <v>217</v>
       </c>
@@ -7524,7 +7503,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="65" t="s">
         <v>217</v>
       </c>
@@ -7534,7 +7513,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="65" t="s">
         <v>217</v>
       </c>
@@ -7544,7 +7523,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="65" t="s">
         <v>217</v>
       </c>
@@ -7554,7 +7533,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="65" t="s">
         <v>218</v>
       </c>
@@ -7564,7 +7543,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="65" t="s">
         <v>218</v>
       </c>
@@ -7574,7 +7553,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="65" t="s">
         <v>218</v>
       </c>
@@ -7584,7 +7563,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="65" t="s">
         <v>218</v>
       </c>
@@ -7594,7 +7573,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="65" t="s">
         <v>218</v>
       </c>
@@ -7604,7 +7583,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="65" t="s">
         <v>218</v>
       </c>
@@ -7614,7 +7593,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="65" t="s">
         <v>218</v>
       </c>
@@ -7624,7 +7603,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="65" t="s">
         <v>218</v>
       </c>
@@ -7634,7 +7613,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="65" t="s">
         <v>218</v>
       </c>
@@ -7644,7 +7623,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="65" t="s">
         <v>218</v>
       </c>
@@ -7654,7 +7633,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="65" t="s">
         <v>218</v>
       </c>
@@ -7664,7 +7643,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="65" t="s">
         <v>219</v>
       </c>
@@ -7674,7 +7653,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="65" t="s">
         <v>219</v>
       </c>
@@ -7684,7 +7663,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="65" t="s">
         <v>219</v>
       </c>
@@ -7694,7 +7673,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="65" t="s">
         <v>219</v>
       </c>
@@ -7704,7 +7683,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="65" t="s">
         <v>219</v>
       </c>
@@ -7714,7 +7693,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="65" t="s">
         <v>219</v>
       </c>
@@ -7724,7 +7703,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="65" t="s">
         <v>219</v>
       </c>
@@ -7734,7 +7713,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="65" t="s">
         <v>219</v>
       </c>
@@ -7744,7 +7723,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="65" t="s">
         <v>219</v>
       </c>
@@ -7754,7 +7733,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="65" t="s">
         <v>219</v>
       </c>
@@ -7764,7 +7743,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="65" t="s">
         <v>219</v>
       </c>
@@ -7774,7 +7753,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="65" t="s">
         <v>219</v>
       </c>
@@ -7784,7 +7763,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="65" t="s">
         <v>220</v>
       </c>
@@ -7794,7 +7773,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="65" t="s">
         <v>220</v>
       </c>
@@ -7804,7 +7783,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="65" t="s">
         <v>220</v>
       </c>
@@ -7814,7 +7793,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="65" t="s">
         <v>220</v>
       </c>
@@ -7824,7 +7803,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="65" t="s">
         <v>221</v>
       </c>
@@ -7834,7 +7813,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="65" t="s">
         <v>221</v>
       </c>
@@ -7844,7 +7823,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="65" t="s">
         <v>221</v>
       </c>
@@ -7854,7 +7833,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="65" t="s">
         <v>221</v>
       </c>
@@ -7864,7 +7843,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="65" t="s">
         <v>221</v>
       </c>
@@ -7874,7 +7853,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="65" t="s">
         <v>221</v>
       </c>
@@ -7884,7 +7863,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="65" t="s">
         <v>221</v>
       </c>
@@ -7894,7 +7873,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="65" t="s">
         <v>221</v>
       </c>
@@ -7904,7 +7883,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="65" t="s">
         <v>221</v>
       </c>
@@ -7914,7 +7893,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="65" t="s">
         <v>221</v>
       </c>
@@ -7924,7 +7903,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="65" t="s">
         <v>221</v>
       </c>
@@ -7934,7 +7913,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="65" t="s">
         <v>221</v>
       </c>
@@ -7944,7 +7923,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="65" t="s">
         <v>221</v>
       </c>
@@ -7954,7 +7933,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="65" t="s">
         <v>221</v>
       </c>
@@ -7964,7 +7943,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="65" t="s">
         <v>221</v>
       </c>
@@ -7974,7 +7953,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="65" t="s">
         <v>221</v>
       </c>
@@ -7984,7 +7963,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="65" t="s">
         <v>221</v>
       </c>
@@ -7994,7 +7973,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="65" t="s">
         <v>221</v>
       </c>
@@ -8004,7 +7983,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="65" t="s">
         <v>221</v>
       </c>
@@ -8014,7 +7993,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="65" t="s">
         <v>221</v>
       </c>
@@ -8024,7 +8003,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="65" t="s">
         <v>221</v>
       </c>
@@ -8034,7 +8013,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="65" t="s">
         <v>221</v>
       </c>
@@ -8044,7 +8023,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="65" t="s">
         <v>221</v>
       </c>
@@ -8054,7 +8033,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="65" t="s">
         <v>221</v>
       </c>
@@ -8064,7 +8043,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="65" t="s">
         <v>221</v>
       </c>
@@ -8074,7 +8053,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="65" t="s">
         <v>221</v>
       </c>
@@ -8084,7 +8063,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="65" t="s">
         <v>221</v>
       </c>
@@ -8094,7 +8073,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" s="65" t="s">
         <v>222</v>
       </c>
@@ -8104,7 +8083,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" s="65" t="s">
         <v>222</v>
       </c>
@@ -8114,7 +8093,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" s="65" t="s">
         <v>222</v>
       </c>
@@ -8124,7 +8103,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" s="65" t="s">
         <v>222</v>
       </c>
@@ -8134,7 +8113,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" s="65" t="s">
         <v>222</v>
       </c>
@@ -8144,12 +8123,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" s="65"/>
       <c r="B747" s="64"/>
       <c r="C747" s="65"/>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" s="65" t="s">
         <v>223</v>
       </c>
@@ -8159,7 +8138,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" s="65" t="s">
         <v>223</v>
       </c>
@@ -8169,7 +8148,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" s="65" t="s">
         <v>223</v>
       </c>
@@ -8179,7 +8158,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" s="65" t="s">
         <v>223</v>
       </c>
@@ -8189,7 +8168,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" s="65" t="s">
         <v>223</v>
       </c>
@@ -8199,7 +8178,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" s="65" t="s">
         <v>223</v>
       </c>
@@ -8209,7 +8188,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" s="65" t="s">
         <v>223</v>
       </c>
@@ -8219,7 +8198,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" s="65" t="s">
         <v>223</v>
       </c>
@@ -8229,7 +8208,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" s="65" t="s">
         <v>223</v>
       </c>
@@ -8239,12 +8218,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" s="65"/>
       <c r="B757" s="64"/>
       <c r="C757" s="65"/>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" s="65" t="s">
         <v>61</v>
       </c>
@@ -8254,7 +8233,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" s="65" t="s">
         <v>61</v>
       </c>
@@ -8264,7 +8243,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" s="65" t="s">
         <v>61</v>
       </c>
@@ -8274,7 +8253,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" s="65" t="s">
         <v>61</v>
       </c>
@@ -8284,7 +8263,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" s="65" t="s">
         <v>61</v>
       </c>
@@ -8294,7 +8273,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" s="65" t="s">
         <v>61</v>
       </c>
@@ -8304,7 +8283,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" s="65" t="s">
         <v>61</v>
       </c>
@@ -8314,7 +8293,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" s="65" t="s">
         <v>61</v>
       </c>
@@ -8324,7 +8303,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" s="65" t="s">
         <v>61</v>
       </c>
@@ -8334,7 +8313,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" s="65" t="s">
         <v>61</v>
       </c>
@@ -8344,7 +8323,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" s="65" t="s">
         <v>61</v>
       </c>
@@ -8354,7 +8333,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" s="65" t="s">
         <v>61</v>
       </c>
@@ -8364,7 +8343,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" s="65" t="s">
         <v>61</v>
       </c>
@@ -8374,7 +8353,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" s="65" t="s">
         <v>61</v>
       </c>
@@ -8384,7 +8363,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" s="65" t="s">
         <v>61</v>
       </c>
@@ -8394,7 +8373,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" s="65" t="s">
         <v>61</v>
       </c>
@@ -8404,12 +8383,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774" s="65"/>
       <c r="B774" s="64"/>
       <c r="C774" s="65"/>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775" s="65" t="s">
         <v>77</v>
       </c>
@@ -8419,7 +8398,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776" s="65" t="s">
         <v>77</v>
       </c>
@@ -8429,7 +8408,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777" s="65" t="s">
         <v>77</v>
       </c>
@@ -8439,7 +8418,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778" s="65" t="s">
         <v>77</v>
       </c>
@@ -8449,7 +8428,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779" s="65" t="s">
         <v>77</v>
       </c>
@@ -8459,7 +8438,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780" s="65" t="s">
         <v>77</v>
       </c>
@@ -8469,7 +8448,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A781" s="65" t="s">
         <v>77</v>
       </c>
@@ -8479,7 +8458,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782" s="65" t="s">
         <v>77</v>
       </c>
@@ -8489,7 +8468,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783" s="65" t="s">
         <v>77</v>
       </c>
@@ -8499,7 +8478,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A784" s="65" t="s">
         <v>77</v>
       </c>
@@ -8509,7 +8488,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A785" s="65" t="s">
         <v>77</v>
       </c>
@@ -8519,7 +8498,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786" s="65" t="s">
         <v>77</v>
       </c>
@@ -8529,7 +8508,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787" s="65" t="s">
         <v>77</v>
       </c>
@@ -8539,7 +8518,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788" s="65" t="s">
         <v>77</v>
       </c>
@@ -8549,7 +8528,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789" s="65" t="s">
         <v>77</v>
       </c>
@@ -8559,7 +8538,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A790" s="65" t="s">
         <v>77</v>
       </c>
@@ -8569,7 +8548,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A791" s="65" t="s">
         <v>77</v>
       </c>
@@ -8579,7 +8558,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A792" s="65" t="s">
         <v>77</v>
       </c>
@@ -8589,7 +8568,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A793" s="65" t="s">
         <v>77</v>
       </c>
@@ -8599,7 +8578,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A794" s="65" t="s">
         <v>77</v>
       </c>
@@ -8609,7 +8588,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795" s="65" t="s">
         <v>77</v>
       </c>
@@ -8619,12 +8598,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A796" s="65"/>
       <c r="B796" s="64"/>
       <c r="C796" s="65"/>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A797" s="65" t="s">
         <v>98</v>
       </c>
@@ -8634,7 +8613,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A798" s="65" t="s">
         <v>98</v>
       </c>
@@ -8644,12 +8623,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A799" s="65"/>
       <c r="B799" s="64"/>
       <c r="C799" s="65"/>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A800" s="65" t="s">
         <v>224</v>
       </c>
@@ -8659,7 +8638,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="65" t="s">
         <v>224</v>
       </c>
@@ -8669,7 +8648,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="65" t="s">
         <v>226</v>
       </c>
@@ -8682,7 +8661,7 @@
       <c r="L803" s="64"/>
       <c r="M803" s="65"/>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="65" t="s">
         <v>226</v>
       </c>
@@ -8695,7 +8674,7 @@
       <c r="L804" s="64"/>
       <c r="M804" s="65"/>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="65" t="s">
         <v>226</v>
       </c>
@@ -8708,7 +8687,7 @@
       <c r="L805" s="64"/>
       <c r="M805" s="65"/>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="65" t="s">
         <v>226</v>
       </c>
@@ -8721,7 +8700,7 @@
       <c r="L806" s="64"/>
       <c r="M806" s="65"/>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="65" t="s">
         <v>226</v>
       </c>
@@ -8734,7 +8713,7 @@
       <c r="L807" s="64"/>
       <c r="M807" s="65"/>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="65" t="s">
         <v>226</v>
       </c>
@@ -8747,7 +8726,7 @@
       <c r="L808" s="64"/>
       <c r="M808" s="65"/>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="65" t="s">
         <v>226</v>
       </c>
@@ -8760,7 +8739,7 @@
       <c r="L809" s="64"/>
       <c r="M809" s="65"/>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="65" t="s">
         <v>226</v>
       </c>
@@ -8773,7 +8752,7 @@
       <c r="L810" s="64"/>
       <c r="M810" s="65"/>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="65" t="s">
         <v>226</v>
       </c>
@@ -8786,7 +8765,7 @@
       <c r="L811" s="64"/>
       <c r="M811" s="65"/>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="65" t="s">
         <v>226</v>
       </c>
@@ -8799,7 +8778,7 @@
       <c r="L812" s="64"/>
       <c r="M812" s="65"/>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" s="62" t="s">
         <v>227</v>
       </c>
@@ -8809,7 +8788,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" s="62" t="s">
         <v>227</v>
       </c>
@@ -8819,7 +8798,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" s="62" t="s">
         <v>227</v>
       </c>
@@ -8829,7 +8808,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A817" s="62" t="s">
         <v>227</v>
       </c>
@@ -8839,7 +8818,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818" s="62" t="s">
         <v>227</v>
       </c>
@@ -8849,7 +8828,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819" s="62" t="s">
         <v>227</v>
       </c>
@@ -8859,7 +8838,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A820" s="62" t="s">
         <v>227</v>
       </c>
@@ -8869,7 +8848,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822" s="65" t="s">
         <v>228</v>
       </c>
@@ -8879,7 +8858,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A823" s="65" t="s">
         <v>228</v>
       </c>
@@ -8889,7 +8868,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824" s="65" t="s">
         <v>228</v>
       </c>
@@ -8899,7 +8878,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825" s="65" t="s">
         <v>228</v>
       </c>
@@ -8909,7 +8888,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826" s="65" t="s">
         <v>228</v>
       </c>
@@ -8919,7 +8898,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828" s="62" t="s">
         <v>233</v>
       </c>
@@ -8929,7 +8908,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829" s="62" t="s">
         <v>233</v>
       </c>
@@ -8939,7 +8918,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830" s="62" t="s">
         <v>233</v>
       </c>
@@ -8949,7 +8928,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831" s="62" t="s">
         <v>233</v>
       </c>
@@ -8959,7 +8938,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A832" s="62" t="s">
         <v>233</v>
       </c>
@@ -8969,7 +8948,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A833" s="62" t="s">
         <v>233</v>
       </c>
@@ -8979,7 +8958,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A834" s="62" t="s">
         <v>233</v>
       </c>
@@ -8989,7 +8968,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A835" s="65" t="s">
         <v>233</v>
       </c>
@@ -8999,7 +8978,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A837" s="62" t="s">
         <v>234</v>
       </c>
@@ -9009,7 +8988,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838" s="62" t="s">
         <v>234</v>
       </c>
@@ -9019,7 +8998,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A839" s="62" t="s">
         <v>234</v>
       </c>
@@ -9029,7 +9008,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840" s="62" t="s">
         <v>234</v>
       </c>
@@ -9039,7 +9018,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A842" s="65" t="s">
         <v>235</v>
       </c>
@@ -9049,7 +9028,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A843" s="65" t="s">
         <v>235</v>
       </c>
@@ -9069,21 +9048,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="27" customWidth="1"/>
+    <col min="1" max="1" width="35.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="27" customWidth="1"/>
     <col min="4" max="4" width="28" style="27" customWidth="1"/>
-    <col min="5" max="5" width="41.8984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.875" style="5" customWidth="1"/>
     <col min="6" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -9100,17 +9079,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" s="70">
-        <v>202401</v>
-      </c>
-      <c r="D2" s="77"/>
+        <v>202402</v>
+      </c>
+      <c r="D2" s="74"/>
       <c r="E2" s="44" t="s">
         <v>169</v>
       </c>
